--- a/pred_ohlcv/54_21/2019-11-20 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 GXC ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-22913.05102373</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-40959.45042373001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-40293.45042373001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-52683.47782373001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-52474.86142373001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-52474.00142373001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-54705.13142373001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-54704.28142373001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-62977.48732373002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-64574.99242373002</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-64574.16242373002</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-64049.58442373003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-64050.58442373003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-63381.00902373002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-57471.96382373001</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-58300.65162373001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-58299.85162373001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-57663.08168717001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-57662.08168717001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-57661.28168717001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-58276.28168717001</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 GXC ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-19739.4039</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-19730.92932373</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-19687.57072373</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16670.04232373001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-27944.08602373001</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-27872.08602373001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-40959.45042373001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-40293.45042373001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-40282.60042373001</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-52683.47782373001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-52482.88342373</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-52482.03342373</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-54499.03822373001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-54705.13142373001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-54704.28142373001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-56053.29102373001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-62977.48732373002</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-64574.99242373002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-64574.16242373002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-66262.24172373003</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-64049.58442373003</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-64047.58442373003</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-64045.76442373003</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-64050.58442373003</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-64047.94442373003</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-64131.13742373003</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-63299.63602373003</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-63298.81602373003</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-63381.00902373002</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-63290.00912373002</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-62839.06682373002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-61356.60182373002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-61356.60182373002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-57234.31982373001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-58300.65162373001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-57236.08168717001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-57663.08168717001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-57662.08168717001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-57661.28168717001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-58276.28168717001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
